--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf6-Bmpr1a.xlsx
@@ -543,10 +543,10 @@
         <v>0.370282</v>
       </c>
       <c r="I2">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790276</v>
       </c>
       <c r="J2">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790275</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N2">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q2">
-        <v>0.70633328051</v>
+        <v>0.7803294891137778</v>
       </c>
       <c r="R2">
-        <v>6.356999524590001</v>
+        <v>7.022965402024</v>
       </c>
       <c r="S2">
-        <v>0.04552663277280352</v>
+        <v>0.04620842747872018</v>
       </c>
       <c r="T2">
-        <v>0.04552663277280353</v>
+        <v>0.04620842747872017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.370282</v>
       </c>
       <c r="I3">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790276</v>
       </c>
       <c r="J3">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790275</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q3">
         <v>5.095943694196666</v>
@@ -635,10 +635,10 @@
         <v>45.86349324777</v>
       </c>
       <c r="S3">
-        <v>0.3284584821333373</v>
+        <v>0.3017642520422472</v>
       </c>
       <c r="T3">
-        <v>0.3284584821333373</v>
+        <v>0.3017642520422472</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.370282</v>
       </c>
       <c r="I4">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790276</v>
       </c>
       <c r="J4">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790275</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N4">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q4">
-        <v>2.019788539572222</v>
+        <v>3.422939964038223</v>
       </c>
       <c r="R4">
-        <v>18.17809685615</v>
+        <v>30.806459676344</v>
       </c>
       <c r="S4">
-        <v>0.1301852449220957</v>
+        <v>0.2026947274181652</v>
       </c>
       <c r="T4">
-        <v>0.1301852449220957</v>
+        <v>0.2026947274181651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>0.370282</v>
       </c>
       <c r="I5">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790276</v>
       </c>
       <c r="J5">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790275</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N5">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q5">
-        <v>0.007667881940888889</v>
+        <v>0.1352975456922222</v>
       </c>
       <c r="R5">
-        <v>0.06901093746800001</v>
+        <v>1.21767791123</v>
       </c>
       <c r="S5">
-        <v>0.0004942324748113267</v>
+        <v>0.008011855139895028</v>
       </c>
       <c r="T5">
-        <v>0.0004942324748113267</v>
+        <v>0.008011855139895026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1211456666666667</v>
+        <v>0.09749966666666667</v>
       </c>
       <c r="H6">
-        <v>0.363437</v>
+        <v>0.292499</v>
       </c>
       <c r="I6">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="J6">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N6">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O6">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P6">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q6">
-        <v>0.693276066535</v>
+        <v>0.6164101826075555</v>
       </c>
       <c r="R6">
-        <v>6.239484598815</v>
+        <v>5.547691643468</v>
       </c>
       <c r="S6">
-        <v>0.04468503150315001</v>
+        <v>0.03650169014183291</v>
       </c>
       <c r="T6">
-        <v>0.04468503150315001</v>
+        <v>0.03650169014183291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1211456666666667</v>
+        <v>0.09749966666666667</v>
       </c>
       <c r="H7">
-        <v>0.363437</v>
+        <v>0.292499</v>
       </c>
       <c r="I7">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="J7">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>123.860985</v>
       </c>
       <c r="O7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q7">
-        <v>5.001740533938333</v>
+        <v>4.025468250168333</v>
       </c>
       <c r="R7">
-        <v>45.015664805445</v>
+        <v>36.229214251515</v>
       </c>
       <c r="S7">
-        <v>0.3223866279513822</v>
+        <v>0.2383743794138124</v>
       </c>
       <c r="T7">
-        <v>0.3223866279513822</v>
+        <v>0.2383743794138124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1211456666666667</v>
+        <v>0.09749966666666667</v>
       </c>
       <c r="H8">
-        <v>0.363437</v>
+        <v>0.292499</v>
       </c>
       <c r="I8">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="J8">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N8">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q8">
-        <v>1.982450908919444</v>
+        <v>2.703902745856445</v>
       </c>
       <c r="R8">
-        <v>17.842058180275</v>
+        <v>24.335124712708</v>
       </c>
       <c r="S8">
-        <v>0.1277786521050218</v>
+        <v>0.1601158173367485</v>
       </c>
       <c r="T8">
-        <v>0.1277786521050218</v>
+        <v>0.1601158173367484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1211456666666667</v>
+        <v>0.09749966666666667</v>
       </c>
       <c r="H9">
-        <v>0.363437</v>
+        <v>0.292499</v>
       </c>
       <c r="I9">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="J9">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N9">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q9">
-        <v>0.007526134159777778</v>
+        <v>0.1068763721094445</v>
       </c>
       <c r="R9">
-        <v>0.067735207438</v>
+        <v>0.9618873489850002</v>
       </c>
       <c r="S9">
-        <v>0.0004850961373979943</v>
+        <v>0.006328851028578639</v>
       </c>
       <c r="T9">
-        <v>0.0004850961373979943</v>
+        <v>0.006328851028578639</v>
       </c>
     </row>
   </sheetData>
